--- a/master/ig/StructureDefinition-radiomics-features.xlsx
+++ b/master/ig/StructureDefinition-radiomics-features.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-13T13:56:11+00:00</t>
+    <t>2024-05-15T14:10:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/master/ig/StructureDefinition-radiomics-features.xlsx
+++ b/master/ig/StructureDefinition-radiomics-features.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-15T14:10:31+00:00</t>
+    <t>2024-05-15T14:17:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/master/ig/StructureDefinition-radiomics-features.xlsx
+++ b/master/ig/StructureDefinition-radiomics-features.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-22T15:19:59+00:00</t>
+    <t>2025-04-22T15:20:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/master/ig/StructureDefinition-radiomics-features.xlsx
+++ b/master/ig/StructureDefinition-radiomics-features.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-22T15:20:25+00:00</t>
+    <t>2025-04-22T15:22:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/master/ig/StructureDefinition-radiomics-features.xlsx
+++ b/master/ig/StructureDefinition-radiomics-features.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-22T15:22:37+00:00</t>
+    <t>2025-04-22T15:25:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/master/ig/StructureDefinition-radiomics-features.xlsx
+++ b/master/ig/StructureDefinition-radiomics-features.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-22T15:25:49+00:00</t>
+    <t>2025-04-23T10:11:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
